--- a/public/Reliance Industries Ltd._Environment...xlsx
+++ b/public/Reliance Industries Ltd._Environment...xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Indian files\QC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C022B7F-0102-4EBF-A3D6-B9BFBAFC06C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6750" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company Info" sheetId="2" r:id="rId1"/>
@@ -14,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data collection sheet'!$A$1:$AK$373</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5807" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5879" uniqueCount="1044">
   <si>
     <t>Key Issues</t>
   </si>
@@ -3995,11 +4001,180 @@
   <si>
     <t>Tabrez</t>
   </si>
+  <si>
+    <t>RIL’s efforts for in-situ preservation of
+ecosystems prompts the organisation to
+improve green cover at its locations. To
+promote biodiversity, more than 2.2 crore
+saplings have been planted across all RIL
+sites till date</t>
+  </si>
+  <si>
+    <t>62   ,   https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx                    "RIL’s efforts for in-situ preservation of
+ecosystems prompts the organisation to
+improve green cover at its locations. To
+promote biodiversity, more than 2.2 crore
+saplings have been planted across all RIL
+sites till date"</t>
+  </si>
+  <si>
+    <t>This venture targets the reduction of the amount of Benzene and other hazardous air pollutants in the gasoline pool – a cause for health and environmental concerns.</t>
+  </si>
+  <si>
+    <t>75  ,   https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx                    "This venture targets the reduction
+of the amount of Benzene and
+other hazardous air pollutants in the
+gasoline pool – a cause for health and
+environmental concerns. "</t>
+  </si>
+  <si>
+    <t>The Company ensures that all
+waste is sent to government-authorised
+disposal agencies. Effluents generated are
+treated to meet the most stringent state and
+central regulatory requirements. RIL has
+undertaken initiatives such as converting
+the organic waste into ‘bio-manure by
+vermi-composting method, thereby
+reducing the waste disposed</t>
+  </si>
+  <si>
+    <t>61   ,  https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx                        "The Company ensures that all
+waste is sent to government-authorised
+disposal agencies. Effluents generated are
+treated to meet the most stringent state and
+central regulatory requirements. RIL has
+undertaken initiatives such as converting
+the organic waste into ‘bio-manure by
+vermi-composting method, thereby
+reducing the waste disposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RIL also
+undertakes stringent monitoring measures
+to prevent spills during storage,
+handling, and transportation of materials.</t>
+  </si>
+  <si>
+    <t>61  , https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx           " RIL also
+undertakes stringent monitoring measures
+to prevent spills during storage,
+handling, and transportation of materials."</t>
+  </si>
+  <si>
+    <t>Reliance is integrating climate related aspects into its overall
+decision-making process across different levels, including
+risk management, governance, performance management
+and the overall business strategy</t>
+  </si>
+  <si>
+    <t>59  , https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx             "Reliance is integrating climate related aspects into its overall
+decision-making process across different levels, including
+risk management, governance, performance management
+and the overall business strategy"</t>
+  </si>
+  <si>
+    <t>Ensure industry-leading energy cells at each site
+working towards energy security with focus on
+reducing consumption and increased use of clean
+energy to progressively reduce GHG emissions
+intensity</t>
+  </si>
+  <si>
+    <t>60 ,   https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx        "Ensure industry-leading energy cells at each site
+working towards energy security with focus on
+reducing consumption and increased use of clean
+energy to progressively reduce GHG emissions
+intensity"</t>
+  </si>
+  <si>
+    <t>RIL focuses on using resources as efficiently
+as possible and simultaneously works
+towards minimising emissions and waste
+generated.</t>
+  </si>
+  <si>
+    <t>61  , RIL focuses on using resources as efficiently
+as possible and simultaneously works
+towards minimising emissions and waste
+generated.</t>
+  </si>
+  <si>
+    <t>Awarded ‘Winner’ for outstanding
+achievement in field of Environment
+Management in Textile Sector
+at 19th Annual Greentech
+Environment Award 2019.
+• Awarded ‘Winner’ at 18th Annual
+Greentech Safety Award 2019
+for persistent commitment in the
+field of Safety.
+• Recertified “Green Fiber” Recycler
+by Control Union, Netherlands for
+the fibre produced at Barabanki
+Manufacturing Division.
+• Reliance received ‘Golden Peacock
+Environment Management Award, 2019’
+for Vadodara Manufacturing Division.
+• Awarded “Energy and Environment
+Foundation Global Safety Award 2020”.
+• HMD’s Antiretroviral Treatment centre
+was declared the ‘Best ART Centre in
+Low Load Category’ by the Information
+Education &amp; Communication division,
+Gujarat State AIDS Control Society,
+Health &amp; Family Welfare Department,
+Government of Gujarat</t>
+  </si>
+  <si>
+    <t>90  , https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx                 "Awarded ‘Winner’ for outstanding
+achievement in field of Environment
+Management in Textile Sector
+at 19th Annual Greentech
+Environment Award 2019.
+• Awarded ‘Winner’ at 18th Annual
+Greentech Safety Award 2019
+for persistent commitment in the
+field of Safety.
+• Recertified “Green Fiber” Recycler
+by Control Union, Netherlands for
+the fibre produced at Barabanki
+Manufacturing Division.
+• Reliance received ‘Golden Peacock
+Environment Management Award, 2019’
+for Vadodara Manufacturing Division.
+• Awarded “Energy and Environment
+Foundation Global Safety Award 2020”.
+• HMD’s Antiretroviral Treatment centre
+was declared the ‘Best ART Centre in
+Low Load Category’ by the Information
+Education &amp; Communication division,
+Gujarat State AIDS Control Society,
+Health &amp; Family Welfare Department,
+Government of Gujarat"</t>
+  </si>
+  <si>
+    <t>To promote biodiversity, over 0.49 million
+saplings were planted during FY 2018-19
+(over 21.5 million saplings planted since
+inception).</t>
+  </si>
+  <si>
+    <t>ril.com/ar2018-19/ril-annual-report-2019.pdf</t>
+  </si>
+  <si>
+    <t>The Company’s strategy towards
+combating climate change aims to
+reduce emissions in its operations,
+allow better assessment of impacts
+and support an orderly transition to
+a low-carbon economy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
@@ -4133,7 +4308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4173,18 +4348,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4387,7 +4550,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4636,104 +4799,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3 2" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="2"/>
+    <cellStyle name="Normal 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="50">
@@ -5541,18 +5613,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
@@ -5624,7 +5696,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet3!$A$2:$A$502</xm:f>
           </x14:formula1>
@@ -5637,7 +5709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A502"/>
   <sheetViews>
     <sheetView topLeftCell="A489" workbookViewId="0">
@@ -8165,11 +8237,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK457"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199:XFD199"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -8177,7 +8249,7 @@
     <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="4" max="4" width="54.5" customWidth="1"/>
     <col min="5" max="5" width="26.625" style="6" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="7" customWidth="1"/>
     <col min="7" max="7" width="8.25" customWidth="1"/>
@@ -8197,7 +8269,7 @@
     <col min="22" max="22" width="25.875" customWidth="1"/>
     <col min="23" max="23" width="23.75" style="67" customWidth="1"/>
     <col min="24" max="24" width="24.5" customWidth="1"/>
-    <col min="25" max="25" width="35.75" customWidth="1"/>
+    <col min="25" max="25" width="29.125" style="87" customWidth="1"/>
     <col min="26" max="26" width="28.75" customWidth="1"/>
     <col min="27" max="27" width="31.25" style="48" customWidth="1"/>
     <col min="28" max="28" width="25.25" customWidth="1"/>
@@ -8656,21 +8728,31 @@
         <v>15</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>911</v>
+        <v>879</v>
       </c>
       <c r="K6" s="75">
         <v>43921</v>
       </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+      <c r="L6" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="N6" s="9">
+        <v>62</v>
+      </c>
+      <c r="O6" s="75">
+        <v>44005</v>
+      </c>
+      <c r="P6" s="73" t="s">
+        <v>1025</v>
+      </c>
       <c r="Q6" s="9" t="s">
         <v>893</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="S6" s="9" t="s">
         <v>893</v>
@@ -8678,11 +8760,19 @@
       <c r="T6" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="U6" s="9"/>
+      <c r="U6" s="73" t="s">
+        <v>1022</v>
+      </c>
       <c r="V6" s="60"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="9"/>
+      <c r="W6" s="64" t="s">
+        <v>879</v>
+      </c>
+      <c r="X6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>1026</v>
+      </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="16"/>
       <c r="AB6" s="9"/>
@@ -8699,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="26" t="e">
-        <f>COUNTIFS(Z:Z, "Error accepted",W:W,AD6)/$AE$16</f>
+        <f>COUNTIFS(Z:Z, "Error accepted", W:W,AD6)/$AE$16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI6" s="68" t="s">
@@ -8782,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="26" t="e">
-        <f t="shared" ref="AG7:AG16" si="2">COUNTIFS(Z:Z, "Error accepted",W:W,AD7)/$AE$16</f>
+        <f t="shared" ref="AG7:AG16" si="2">COUNTIFS(Z:Z, "Error accepted", W:W,AD7)/$AE$16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI7" s="68" t="s">
@@ -8856,11 +8946,11 @@
       </c>
       <c r="AE8" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF8" s="25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="AG8" s="26" t="e">
         <f t="shared" si="2"/>
@@ -8903,21 +8993,31 @@
         <v>15</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>911</v>
+        <v>879</v>
       </c>
       <c r="K9" s="75">
         <v>43921</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="L9" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="N9" s="9">
+        <v>75</v>
+      </c>
+      <c r="O9" s="75">
+        <v>44005</v>
+      </c>
+      <c r="P9" t="s">
+        <v>1027</v>
+      </c>
       <c r="Q9" s="9" t="s">
         <v>893</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>893</v>
@@ -8925,11 +9025,19 @@
       <c r="T9" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="U9" s="9"/>
+      <c r="U9" s="73" t="s">
+        <v>1022</v>
+      </c>
       <c r="V9" s="60"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="9"/>
+      <c r="W9" s="64" t="s">
+        <v>879</v>
+      </c>
+      <c r="X9" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>1028</v>
+      </c>
       <c r="Z9" s="9"/>
       <c r="AA9" s="16"/>
       <c r="AB9" s="9"/>
@@ -8986,21 +9094,31 @@
         <v>15</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>911</v>
+        <v>879</v>
       </c>
       <c r="K10" s="75">
         <v>43921</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="L10" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="N10" s="9">
+        <v>75</v>
+      </c>
+      <c r="O10" s="75">
+        <v>44005</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1027</v>
+      </c>
       <c r="Q10" s="9" t="s">
         <v>893</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="S10" s="9" t="s">
         <v>893</v>
@@ -9008,11 +9126,19 @@
       <c r="T10" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="U10" s="9"/>
+      <c r="U10" s="73" t="s">
+        <v>1022</v>
+      </c>
       <c r="V10" s="60"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="9"/>
+      <c r="W10" s="64" t="s">
+        <v>879</v>
+      </c>
+      <c r="X10" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>1028</v>
+      </c>
       <c r="Z10" s="9"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="9"/>
@@ -9220,100 +9346,100 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="115" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="99" t="s">
-        <v>779</v>
-      </c>
-      <c r="B13" s="100" t="s">
+    <row r="13" spans="1:37" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="36" t="s">
+        <v>779</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D13" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="103" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="99" t="s">
+      <c r="H13" s="12" t="s">
         <v>795</v>
       </c>
-      <c r="I13" s="103" t="s">
+      <c r="I13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="104">
+      <c r="J13" s="9">
         <v>29400</v>
       </c>
-      <c r="K13" s="105">
+      <c r="K13" s="75">
         <v>43921</v>
       </c>
-      <c r="L13" s="104" t="s">
+      <c r="L13" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="M13" s="106" t="s">
+      <c r="M13" s="74" t="s">
         <v>882</v>
       </c>
-      <c r="N13" s="104">
+      <c r="N13" s="9">
         <v>59</v>
       </c>
-      <c r="O13" s="105">
+      <c r="O13" s="75">
         <v>44005</v>
       </c>
-      <c r="P13" s="104" t="s">
+      <c r="P13" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="Q13" s="104" t="s">
+      <c r="Q13" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="R13" s="104" t="s">
-        <v>893</v>
-      </c>
-      <c r="S13" s="104" t="s">
-        <v>893</v>
-      </c>
-      <c r="T13" s="104" t="s">
-        <v>893</v>
-      </c>
-      <c r="U13" s="104" t="s">
+      <c r="R13" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="U13" s="9" t="s">
         <v>1023</v>
       </c>
-      <c r="V13" s="107" t="s">
+      <c r="V13" s="60" t="s">
         <v>888</v>
       </c>
-      <c r="W13" s="108"/>
-      <c r="X13" s="109"/>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="110"/>
-      <c r="AB13" s="104"/>
-      <c r="AC13" s="104"/>
-      <c r="AD13" s="111" t="s">
+      <c r="W13" s="64"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="AE13" s="112">
+      <c r="AE13" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="113">
+      <c r="AF13" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="114" t="e">
+      <c r="AG13" s="26" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI13" s="116" t="s">
+      <c r="AI13" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="AJ13" s="116" t="s">
+      <c r="AJ13" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="AK13" s="116" t="s">
+      <c r="AK13" s="70" t="s">
         <v>53</v>
       </c>
     </row>
@@ -9628,11 +9754,11 @@
       </c>
       <c r="AE17" s="27">
         <f>SUM(AE6:AE16)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF17" s="28">
         <f>SUM(AF6:AF16)</f>
-        <v>0</v>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="AG17" s="28" t="e">
         <f>SUM(AG6:AG16)</f>
@@ -9700,7 +9826,7 @@
       </c>
       <c r="AE18" s="29">
         <f>1-AF17</f>
-        <v>1</v>
+        <v>0.97580645161290325</v>
       </c>
       <c r="AF18" s="23" t="s">
         <v>870</v>
@@ -10196,21 +10322,31 @@
         <v>15</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>911</v>
+        <v>879</v>
       </c>
       <c r="K26" s="75">
         <v>43921</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
+      <c r="L26" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="M26" s="74" t="s">
+        <v>882</v>
+      </c>
+      <c r="N26" s="9">
+        <v>59</v>
+      </c>
+      <c r="O26" s="75">
+        <v>44005</v>
+      </c>
+      <c r="P26" s="73" t="s">
+        <v>1033</v>
+      </c>
       <c r="Q26" s="9" t="s">
         <v>893</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="S26" s="9" t="s">
         <v>893</v>
@@ -10218,11 +10354,19 @@
       <c r="T26" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="U26" s="9"/>
+      <c r="U26" s="73" t="s">
+        <v>1022</v>
+      </c>
       <c r="V26" s="60"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="9"/>
+      <c r="W26" s="64" t="s">
+        <v>879</v>
+      </c>
+      <c r="X26" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>1034</v>
+      </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="16"/>
       <c r="AB26" s="9"/>
@@ -10432,21 +10576,31 @@
         <v>15</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>911</v>
+        <v>879</v>
       </c>
       <c r="K30" s="75">
         <v>43921</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
+      <c r="L30" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="N30" s="9">
+        <v>60</v>
+      </c>
+      <c r="O30" s="75">
+        <v>44005</v>
+      </c>
+      <c r="P30" s="73" t="s">
+        <v>1035</v>
+      </c>
       <c r="Q30" s="9" t="s">
         <v>893</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="S30" s="9" t="s">
         <v>893</v>
@@ -10454,11 +10608,19 @@
       <c r="T30" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="U30" s="9"/>
+      <c r="U30" s="73" t="s">
+        <v>1022</v>
+      </c>
       <c r="V30" s="60"/>
-      <c r="W30" s="64"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="9"/>
+      <c r="W30" s="64" t="s">
+        <v>879</v>
+      </c>
+      <c r="X30" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y30" s="9" t="s">
+        <v>1036</v>
+      </c>
       <c r="Z30" s="9"/>
       <c r="AA30" s="16"/>
       <c r="AB30" s="9"/>
@@ -10535,64 +10697,64 @@
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
     </row>
-    <row r="32" spans="1:33" s="98" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="87" t="s">
-        <v>779</v>
-      </c>
-      <c r="B32" s="88" t="s">
+    <row r="32" spans="1:33" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="36" t="s">
+        <v>779</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D32" s="87" t="s">
+      <c r="D32" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="E32" s="89" t="s">
+      <c r="E32" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="F32" s="90" t="s">
+      <c r="F32" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="G32" s="91" t="s">
+      <c r="G32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="87" t="s">
+      <c r="H32" s="12" t="s">
         <v>796</v>
       </c>
-      <c r="I32" s="91" t="s">
+      <c r="I32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J32" s="92"/>
-      <c r="K32" s="93">
+      <c r="J32" s="9"/>
+      <c r="K32" s="75">
         <v>43921</v>
       </c>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="92" t="s">
-        <v>893</v>
-      </c>
-      <c r="R32" s="92" t="s">
-        <v>893</v>
-      </c>
-      <c r="S32" s="92" t="s">
-        <v>893</v>
-      </c>
-      <c r="T32" s="92" t="s">
-        <v>893</v>
-      </c>
-      <c r="U32" s="92"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="97"/>
-      <c r="AB32" s="92"/>
-      <c r="AC32" s="92"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="U32" s="9"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
     </row>
     <row r="33" spans="1:29" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="36" t="s">
@@ -11022,21 +11184,31 @@
         <v>15</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>911</v>
+        <v>879</v>
       </c>
       <c r="K40" s="75">
         <v>43921</v>
       </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="73"/>
+      <c r="L40" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="N40" s="9">
+        <v>61</v>
+      </c>
+      <c r="O40" s="75">
+        <v>44005</v>
+      </c>
+      <c r="P40" s="73" t="s">
+        <v>1037</v>
+      </c>
       <c r="Q40" s="9" t="s">
         <v>893</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="S40" s="9" t="s">
         <v>893</v>
@@ -11044,11 +11216,19 @@
       <c r="T40" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="U40" s="9"/>
+      <c r="U40" s="73" t="s">
+        <v>1022</v>
+      </c>
       <c r="V40" s="60"/>
-      <c r="W40" s="64"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="9"/>
+      <c r="W40" s="64" t="s">
+        <v>879</v>
+      </c>
+      <c r="X40" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y40" s="9" t="s">
+        <v>1038</v>
+      </c>
       <c r="Z40" s="9"/>
       <c r="AA40" s="16"/>
       <c r="AB40" s="9"/>
@@ -11601,21 +11781,31 @@
         <v>15</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>911</v>
+        <v>879</v>
       </c>
       <c r="K49" s="75">
         <v>43921</v>
       </c>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
+      <c r="L49" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="M49" s="74" t="s">
+        <v>882</v>
+      </c>
+      <c r="N49" s="9">
+        <v>61</v>
+      </c>
+      <c r="O49" s="75">
+        <v>44005</v>
+      </c>
+      <c r="P49" s="73" t="s">
+        <v>1029</v>
+      </c>
       <c r="Q49" s="9" t="s">
         <v>893</v>
       </c>
       <c r="R49" s="9" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="S49" s="9" t="s">
         <v>893</v>
@@ -11623,11 +11813,19 @@
       <c r="T49" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="U49" s="9"/>
+      <c r="U49" s="73" t="s">
+        <v>1022</v>
+      </c>
       <c r="V49" s="60"/>
-      <c r="W49" s="64"/>
-      <c r="X49" s="37"/>
-      <c r="Y49" s="9"/>
+      <c r="W49" s="64" t="s">
+        <v>879</v>
+      </c>
+      <c r="X49" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y49" s="9" t="s">
+        <v>1030</v>
+      </c>
       <c r="Z49" s="9"/>
       <c r="AA49" s="16"/>
       <c r="AB49" s="9"/>
@@ -11660,21 +11858,31 @@
         <v>15</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>911</v>
+        <v>879</v>
       </c>
       <c r="K50" s="75">
         <v>43921</v>
       </c>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
+      <c r="L50" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="M50" s="74" t="s">
+        <v>882</v>
+      </c>
+      <c r="N50" s="9">
+        <v>61</v>
+      </c>
+      <c r="O50" s="75">
+        <v>44005</v>
+      </c>
+      <c r="P50" s="73" t="s">
+        <v>1031</v>
+      </c>
       <c r="Q50" s="9" t="s">
         <v>893</v>
       </c>
       <c r="R50" s="9" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="S50" s="9" t="s">
         <v>893</v>
@@ -11682,11 +11890,19 @@
       <c r="T50" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="U50" s="9"/>
+      <c r="U50" s="73" t="s">
+        <v>1022</v>
+      </c>
       <c r="V50" s="60"/>
-      <c r="W50" s="64"/>
-      <c r="X50" s="37"/>
-      <c r="Y50" s="9"/>
+      <c r="W50" s="64" t="s">
+        <v>879</v>
+      </c>
+      <c r="X50" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y50" s="9" t="s">
+        <v>1032</v>
+      </c>
       <c r="Z50" s="9"/>
       <c r="AA50" s="16"/>
       <c r="AB50" s="9"/>
@@ -15483,21 +15699,31 @@
         <v>15</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>911</v>
+        <v>879</v>
       </c>
       <c r="K113" s="75">
         <v>43921</v>
       </c>
-      <c r="L113" s="9"/>
-      <c r="M113" s="9"/>
-      <c r="N113" s="9"/>
-      <c r="O113" s="9"/>
-      <c r="P113" s="9"/>
+      <c r="L113" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="M113" s="74" t="s">
+        <v>882</v>
+      </c>
+      <c r="N113" s="9">
+        <v>90</v>
+      </c>
+      <c r="O113" s="75">
+        <v>44005</v>
+      </c>
+      <c r="P113" s="73" t="s">
+        <v>1039</v>
+      </c>
       <c r="Q113" s="9" t="s">
         <v>893</v>
       </c>
       <c r="R113" s="9" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="S113" s="9" t="s">
         <v>893</v>
@@ -15505,11 +15731,19 @@
       <c r="T113" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="U113" s="9"/>
+      <c r="U113" s="73" t="s">
+        <v>1022</v>
+      </c>
       <c r="V113" s="60"/>
-      <c r="W113" s="64"/>
-      <c r="X113" s="37"/>
-      <c r="Y113" s="9"/>
+      <c r="W113" s="64" t="s">
+        <v>879</v>
+      </c>
+      <c r="X113" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y113" s="9" t="s">
+        <v>1040</v>
+      </c>
       <c r="Z113" s="9"/>
       <c r="AA113" s="16"/>
       <c r="AB113" s="9"/>
@@ -15928,62 +16162,62 @@
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
     </row>
-    <row r="121" spans="1:29" s="98" customFormat="1" ht="15" customHeight="1">
-      <c r="A121" s="87" t="s">
-        <v>779</v>
-      </c>
-      <c r="B121" s="87" t="s">
+    <row r="121" spans="1:29" s="8" customFormat="1" ht="15" customHeight="1">
+      <c r="A121" s="36" t="s">
+        <v>779</v>
+      </c>
+      <c r="B121" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="C121" s="88" t="s">
+      <c r="C121" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="D121" s="87" t="s">
+      <c r="D121" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="E121" s="89" t="s">
+      <c r="E121" s="15" t="s">
         <v>844</v>
       </c>
-      <c r="F121" s="90"/>
-      <c r="G121" s="91" t="s">
+      <c r="F121" s="2"/>
+      <c r="G121" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H121" s="87" t="s">
+      <c r="H121" s="12" t="s">
         <v>793</v>
       </c>
-      <c r="I121" s="91" t="s">
+      <c r="I121" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J121" s="92"/>
-      <c r="K121" s="93">
+      <c r="J121" s="9"/>
+      <c r="K121" s="75">
         <v>43921</v>
       </c>
-      <c r="L121" s="92"/>
-      <c r="M121" s="92"/>
-      <c r="N121" s="92"/>
-      <c r="O121" s="92"/>
-      <c r="P121" s="92"/>
-      <c r="Q121" s="92" t="s">
-        <v>893</v>
-      </c>
-      <c r="R121" s="92" t="s">
-        <v>893</v>
-      </c>
-      <c r="S121" s="92" t="s">
-        <v>893</v>
-      </c>
-      <c r="T121" s="92" t="s">
-        <v>893</v>
-      </c>
-      <c r="U121" s="92"/>
-      <c r="V121" s="94"/>
-      <c r="W121" s="95"/>
-      <c r="X121" s="96"/>
-      <c r="Y121" s="92"/>
-      <c r="Z121" s="92"/>
-      <c r="AA121" s="97"/>
-      <c r="AB121" s="92"/>
-      <c r="AC121" s="92"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="R121" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="S121" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="T121" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="U121" s="9"/>
+      <c r="V121" s="60"/>
+      <c r="W121" s="64"/>
+      <c r="X121" s="37"/>
+      <c r="Y121" s="9"/>
+      <c r="Z121" s="9"/>
+      <c r="AA121" s="16"/>
+      <c r="AB121" s="9"/>
+      <c r="AC121" s="9"/>
     </row>
     <row r="122" spans="1:29" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="36" t="s">
@@ -20468,21 +20702,31 @@
         <v>67</v>
       </c>
       <c r="J192" s="9" t="s">
-        <v>911</v>
+        <v>879</v>
       </c>
       <c r="K192" s="75">
         <v>43555</v>
       </c>
-      <c r="L192" s="38"/>
-      <c r="M192" s="38"/>
-      <c r="N192" s="38"/>
-      <c r="O192" s="38"/>
-      <c r="P192" s="38"/>
+      <c r="L192" s="38" t="s">
+        <v>886</v>
+      </c>
+      <c r="M192" s="38" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N192" s="38">
+        <v>179</v>
+      </c>
+      <c r="O192" s="75">
+        <v>43665</v>
+      </c>
+      <c r="P192" s="76" t="s">
+        <v>1041</v>
+      </c>
       <c r="Q192" s="9" t="s">
         <v>893</v>
       </c>
       <c r="R192" s="9" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="S192" s="9" t="s">
         <v>893</v>
@@ -20490,9 +20734,13 @@
       <c r="T192" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="U192" s="38"/>
+      <c r="U192" s="73" t="s">
+        <v>1022</v>
+      </c>
       <c r="V192" s="61"/>
-      <c r="W192" s="64"/>
+      <c r="W192" s="64" t="s">
+        <v>879</v>
+      </c>
       <c r="X192" s="37"/>
       <c r="Y192" s="38"/>
       <c r="Z192" s="38"/>
@@ -20864,78 +21112,78 @@
       <c r="AB198" s="38"/>
       <c r="AC198" s="38"/>
     </row>
-    <row r="199" spans="1:29" s="119" customFormat="1" ht="15" customHeight="1">
-      <c r="A199" s="99" t="s">
-        <v>779</v>
-      </c>
-      <c r="B199" s="100" t="s">
+    <row r="199" spans="1:29" ht="15" customHeight="1">
+      <c r="A199" s="36" t="s">
+        <v>779</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="C199" s="100" t="s">
+      <c r="C199" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D199" s="99" t="s">
+      <c r="D199" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="E199" s="101" t="s">
+      <c r="E199" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="F199" s="102"/>
-      <c r="G199" s="103" t="s">
+      <c r="F199" s="2"/>
+      <c r="G199" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H199" s="99" t="s">
+      <c r="H199" s="12" t="s">
         <v>795</v>
       </c>
-      <c r="I199" s="103" t="s">
+      <c r="I199" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J199" s="104">
+      <c r="J199" s="9">
         <v>34400</v>
       </c>
-      <c r="K199" s="105">
+      <c r="K199" s="75">
         <v>43555</v>
       </c>
-      <c r="L199" s="117" t="s">
+      <c r="L199" s="38" t="s">
         <v>881</v>
       </c>
-      <c r="M199" s="106" t="s">
+      <c r="M199" s="74" t="s">
         <v>882</v>
       </c>
-      <c r="N199" s="117">
+      <c r="N199" s="38">
         <v>59</v>
       </c>
-      <c r="O199" s="105">
+      <c r="O199" s="75">
         <v>44005</v>
       </c>
-      <c r="P199" s="117" t="s">
+      <c r="P199" s="38" t="s">
         <v>883</v>
       </c>
-      <c r="Q199" s="104" t="s">
+      <c r="Q199" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="R199" s="104" t="s">
-        <v>893</v>
-      </c>
-      <c r="S199" s="104" t="s">
-        <v>893</v>
-      </c>
-      <c r="T199" s="104" t="s">
-        <v>893</v>
-      </c>
-      <c r="U199" s="104" t="s">
+      <c r="R199" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="S199" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="T199" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="U199" s="9" t="s">
         <v>1023</v>
       </c>
-      <c r="V199" s="118" t="s">
+      <c r="V199" s="61" t="s">
         <v>890</v>
       </c>
-      <c r="W199" s="108"/>
-      <c r="X199" s="109"/>
-      <c r="Y199" s="117"/>
-      <c r="Z199" s="117"/>
-      <c r="AA199" s="110"/>
-      <c r="AB199" s="117"/>
-      <c r="AC199" s="117"/>
+      <c r="W199" s="64"/>
+      <c r="X199" s="37"/>
+      <c r="Y199" s="38"/>
+      <c r="Z199" s="38"/>
+      <c r="AA199" s="16"/>
+      <c r="AB199" s="38"/>
+      <c r="AC199" s="38"/>
     </row>
     <row r="200" spans="1:29" ht="15" customHeight="1">
       <c r="A200" s="36" t="s">
@@ -21740,21 +21988,31 @@
         <v>67</v>
       </c>
       <c r="J212" s="9" t="s">
-        <v>911</v>
+        <v>879</v>
       </c>
       <c r="K212" s="75">
         <v>43555</v>
       </c>
-      <c r="L212" s="38"/>
-      <c r="M212" s="38"/>
-      <c r="N212" s="38"/>
-      <c r="O212" s="38"/>
-      <c r="P212" s="38"/>
+      <c r="L212" s="38" t="s">
+        <v>886</v>
+      </c>
+      <c r="M212" s="38" t="s">
+        <v>1042</v>
+      </c>
+      <c r="N212" s="38">
+        <v>114</v>
+      </c>
+      <c r="O212" s="75">
+        <v>43665</v>
+      </c>
+      <c r="P212" s="76" t="s">
+        <v>1043</v>
+      </c>
       <c r="Q212" s="9" t="s">
         <v>893</v>
       </c>
       <c r="R212" s="9" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="S212" s="9" t="s">
         <v>893</v>
@@ -21762,7 +22020,9 @@
       <c r="T212" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="U212" s="38"/>
+      <c r="U212" s="73" t="s">
+        <v>1022</v>
+      </c>
       <c r="V212" s="61"/>
       <c r="W212" s="64"/>
       <c r="X212" s="37"/>
@@ -33063,117 +33323,121 @@
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J174 J176 J360 J362">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J174 J176 J360 J362" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>-900</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J183 J173 J175 J361 J359">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J183 J173 J175 J361 J359" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>-999999999</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8 J13:J19 J32:J39 J121:J124 J72:J74 J62:J63 J88 J95 J221:J225 J83:J86 J93 J194 J199:J205 J279 J307:J310 J258:J260 J248:J249 J274 J281 J55:J60 J269:J272 J241:J246">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8 J13:J19 J32:J39 J121:J124 J72:J74 J62:J63 J88 J95 J221:J225 J83:J86 J93 J194 J199:J205 J279 J307:J310 J258:J260 J248:J249 J274 J281 J55:J60 J269:J272 J241:J246" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>-9999999</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J127:J130 J187 J142:J145 J184 J313:J316 J373 J328:J331">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J127:J130 J187 J142:J145 J184 J313:J316 J373 J328:J331" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>-999999</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W449 Q2:T449">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W449 Q2:T449" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X449">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X449" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>$AJ$5:$AJ$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA443">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA443" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>"Error accepted, Error not accepted"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J61 J87 J94 J96:J97 J125:J126 J141 J155:J156 J159 J345 J374 J247 J273 J280 J282:J283 J311:J312 J327 J341:J342">
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J61 J87 J94 J96:J97 J125:J126 J141 J155:J156 J159 J345 J374 J247 J273 J280 J282:J283 J311:J312 J327 J341:J342" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>100</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J332:J340 J2:J7 J9:J12 J20:J31 J40:J51 J64:J71 J75:J82 J89:J92 J98:J120 J131:J140 J160:J172 J157:J158 J146:J154 J177:J182 J188:J193 J195:J198 J206:J217 J226:J237 J250:J257 J261:J268 J275:J278 J284:J306 J317:J326 J346:J358 J343:J344 J363:J368">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J332:J340 J2:J7 J9:J12 J20:J31 J40:J51 J64:J71 J75:J82 J89:J92 J98:J120 J131:J140 J160:J172 J157:J158 J146:J154 J177:J182 J188:J193 J195:J198 J206:J217 J226:J237 J250:J257 J261:J268 J275:J278 J284:J306 J317:J326 J346:J358 J343:J344 J363:J368" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>"Yes, No, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X373">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X373" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>$AJ$5:$AJ$15</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J218:J220 J52:J54 J238:J240 J185 J369:J371">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J218:J220 J52:J54 J238:J240 J185 J369:J371" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" Data in percentage and upto three decimal digits" sqref="J186 J372">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" Data in percentage and upto three decimal digits" sqref="J186 J372" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="M133" r:id="rId2"/>
-    <hyperlink ref="M137" r:id="rId3"/>
-    <hyperlink ref="M102" r:id="rId4"/>
-    <hyperlink ref="M4" r:id="rId5"/>
-    <hyperlink ref="M5" r:id="rId6"/>
-    <hyperlink ref="M11" r:id="rId7"/>
-    <hyperlink ref="M13" r:id="rId8"/>
-    <hyperlink ref="M17" r:id="rId9"/>
-    <hyperlink ref="M20" r:id="rId10"/>
-    <hyperlink ref="M22" r:id="rId11"/>
-    <hyperlink ref="M24:M25" r:id="rId12" display="https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx"/>
-    <hyperlink ref="M31" r:id="rId13"/>
-    <hyperlink ref="M52:M54" r:id="rId14" display="https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx"/>
-    <hyperlink ref="M64" r:id="rId15"/>
-    <hyperlink ref="M68" r:id="rId16"/>
-    <hyperlink ref="M77" r:id="rId17"/>
-    <hyperlink ref="M91" r:id="rId18"/>
-    <hyperlink ref="M98" r:id="rId19"/>
-    <hyperlink ref="M132" r:id="rId20"/>
-    <hyperlink ref="M134" r:id="rId21"/>
-    <hyperlink ref="M136" r:id="rId22"/>
-    <hyperlink ref="M138:M140" r:id="rId23" display="https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx"/>
-    <hyperlink ref="M148:M150" r:id="rId24" display="https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx"/>
-    <hyperlink ref="M157:M162" r:id="rId25" display="https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx"/>
-    <hyperlink ref="M166:M168" r:id="rId26" display="https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx"/>
-    <hyperlink ref="M170" r:id="rId27"/>
-    <hyperlink ref="M177" r:id="rId28"/>
-    <hyperlink ref="M179" r:id="rId29"/>
-    <hyperlink ref="M185:M186" r:id="rId30" display="https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx"/>
-    <hyperlink ref="M199" r:id="rId31"/>
-    <hyperlink ref="M203" r:id="rId32"/>
-    <hyperlink ref="M153" r:id="rId33"/>
-    <hyperlink ref="M190:M191" r:id="rId34" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf"/>
-    <hyperlink ref="M197" r:id="rId35"/>
-    <hyperlink ref="M202" r:id="rId36"/>
-    <hyperlink ref="M206" r:id="rId37"/>
-    <hyperlink ref="M208" r:id="rId38"/>
-    <hyperlink ref="M210:M211" r:id="rId39" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf"/>
-    <hyperlink ref="M217:M220" r:id="rId40" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf"/>
-    <hyperlink ref="M228" r:id="rId41"/>
-    <hyperlink ref="M231" r:id="rId42"/>
-    <hyperlink ref="M238:M240" r:id="rId43" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf"/>
-    <hyperlink ref="M250" r:id="rId44"/>
-    <hyperlink ref="M254" r:id="rId45"/>
-    <hyperlink ref="M258" r:id="rId46"/>
-    <hyperlink ref="M261" r:id="rId47"/>
-    <hyperlink ref="M263" r:id="rId48"/>
-    <hyperlink ref="M277" r:id="rId49"/>
-    <hyperlink ref="M284" r:id="rId50"/>
-    <hyperlink ref="M288" r:id="rId51"/>
-    <hyperlink ref="M298" r:id="rId52"/>
-    <hyperlink ref="M318:M320" r:id="rId53" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf"/>
-    <hyperlink ref="M322" r:id="rId54"/>
-    <hyperlink ref="M324:M326" r:id="rId55" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf"/>
-    <hyperlink ref="M332" r:id="rId56"/>
-    <hyperlink ref="M334:M336" r:id="rId57" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf"/>
-    <hyperlink ref="M339" r:id="rId58"/>
-    <hyperlink ref="M343:M348" r:id="rId59" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf"/>
-    <hyperlink ref="M352:M354" r:id="rId60" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf"/>
-    <hyperlink ref="M356" r:id="rId61"/>
-    <hyperlink ref="M363" r:id="rId62"/>
-    <hyperlink ref="M365" r:id="rId63"/>
-    <hyperlink ref="M369:M372" r:id="rId64" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf"/>
-    <hyperlink ref="M112" r:id="rId65"/>
-    <hyperlink ref="M146" r:id="rId66"/>
-    <hyperlink ref="M323" r:id="rId67"/>
-    <hyperlink ref="M89" r:id="rId68"/>
-    <hyperlink ref="M188" r:id="rId69"/>
-    <hyperlink ref="M275" r:id="rId70"/>
-    <hyperlink ref="M42:M45" r:id="rId71" display="https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="M133" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="M137" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="M102" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="M4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="M5" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="M11" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="M13" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="M17" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="M20" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="M22" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="M24:M25" r:id="rId12" display="https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="M31" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="M52:M54" r:id="rId14" display="https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="M64" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="M68" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="M77" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="M91" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="M98" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="M132" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="M134" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="M136" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="M138:M140" r:id="rId23" display="https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="M148:M150" r:id="rId24" display="https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="M157:M162" r:id="rId25" display="https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="M166:M168" r:id="rId26" display="https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="M170" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="M177" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="M179" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="M185:M186" r:id="rId30" display="https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="M199" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="M203" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="M153" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="M190:M191" r:id="rId34" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="M197" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="M202" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="M206" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="M208" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="M210:M211" r:id="rId39" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="M217:M220" r:id="rId40" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="M228" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="M231" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="M238:M240" r:id="rId43" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="M250" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="M254" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="M258" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="M261" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="M263" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="M277" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="M284" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="M288" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="M298" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="M318:M320" r:id="rId53" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="M322" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="M324:M326" r:id="rId55" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="M332" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="M334:M336" r:id="rId57" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="M339" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="M343:M348" r:id="rId59" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="M352:M354" r:id="rId60" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="M356" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="M363" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="M365" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="M369:M372" r:id="rId64" display="https://www.ril.com/ar2018-19/ril-annual-report-2019.pdf" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="M112" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="M146" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="M323" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="M89" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="M188" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="M275" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="M42:M45" r:id="rId71" display="https://www.ril.com/getattachment/299caec5-2e8a-43b7-8f70-d633a150d07e/AnnualReport_2019-20.aspx" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="M49" r:id="rId72" xr:uid="{86C96253-0AD0-40E8-B793-953F9CE70CB0}"/>
+    <hyperlink ref="M50" r:id="rId73" xr:uid="{02E3E2A6-B553-4FBB-BE6A-6CF37E2F5FB6}"/>
+    <hyperlink ref="M26" r:id="rId74" xr:uid="{ADF5D032-9F5B-4346-BF91-0871FA33A2CD}"/>
+    <hyperlink ref="M113" r:id="rId75" xr:uid="{EB012A01-42EB-4247-8067-B481ED8FE109}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId72"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId76"/>
 </worksheet>
 </file>